--- a/biology/Botanique/Berberis_aggregata/Berberis_aggregata.xlsx
+++ b/biology/Botanique/Berberis_aggregata/Berberis_aggregata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berbéris à grappe ou épine-vinette à grappe (Berberis aggregata) est une plante de la famille des Berbéridacées originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbuste, ne dépassant pas 1,5 m, aux branches arquées et aux longues épines trifurquées.
 Ses feuilles sont caduques et prennent une couleur rouge-orangé à l'automne.
@@ -550,7 +564,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trois variétés botaniques sont reconnues :
 Berberis aggregata var. integrifolia Ahrendt (1961)
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine. Elle est actuellement largement répandue dans tous les pays à climat tempéré.
 </t>
@@ -614,7 +632,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épine-vinette à grappe est largement utilisée à des fins ornementales : plante facile de culture, de développement assez réduit (mais il existe une variété grimpante), de floraison printanière et de belle couleur automnale.
 Ses fruits sont comestibles au goût acidulé mais cet usage alimentaire reste anecdotique.
